--- a/img/program_2025/program-v5.xlsx
+++ b/img/program_2025/program-v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\RTCSA2025\rtcsa2025.github.io\img\program_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\RTCSA2025\rtcsa2025.github.io\img\program_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F80E36-2847-49CF-84FE-1ED1782ED9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CA2A6D-ACE6-4F8E-9CE4-9B4891BF5C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E4CD5D41-816A-4F5B-9B2D-5CE078B72F98}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" xr2:uid="{E4CD5D41-816A-4F5B-9B2D-5CE078B72F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Conference program" sheetId="2" r:id="rId1"/>
@@ -811,7 +811,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +844,13 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1104,15 +1111,177 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,18 +1294,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,9 +1318,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,105 +1333,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,54 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,35 +1684,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF69B41-2B9C-5B47-A08B-2BD30EA5AB7F}">
   <dimension ref="D4:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="1" max="3" width="10.796875" style="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="1"/>
+    <col min="11" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="11"/>
-      <c r="E4" s="54" t="s">
+    <row r="4" spans="4:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="D4" s="66"/>
+      <c r="E4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="12"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="4:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="D5" s="67"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1725,515 +1732,521 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="12"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="4:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="36" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="62" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="40" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="56"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="44"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="4:10" ht="13.9" x14ac:dyDescent="0.35">
       <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="55" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="56"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="40" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="22" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="73"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="64" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="5"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="69"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="23"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="10"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30" t="s">
+      <c r="F28" s="80"/>
+      <c r="G28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="7"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="70"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="86"/>
       <c r="I29" s="7"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="70"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="7"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="71"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="87"/>
       <c r="I31" s="7"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
+      <c r="F32" s="39"/>
+      <c r="G32" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="72"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="7"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="73"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="7"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="76" t="s">
         <v>53</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="27"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="7"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="27"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="7"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="27"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="7"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="27"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="7"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="56"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="78"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="59"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="78"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D41" s="4"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="4:10" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+    </row>
+    <row r="42" spans="4:10" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="66" t="s">
+      <c r="F42" s="39"/>
+      <c r="G42" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="67"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="64"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="64" t="s">
+      <c r="E43" s="45"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="65"/>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="62"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="65"/>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="62"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="4:10" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="62"/>
+    </row>
+    <row r="46" spans="4:10" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D46" s="6"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="68" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="67"/>
+      <c r="H46" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E7:F20"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="E28:F31"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="G14:G20"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="G28:H31"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="G34:G40"/>
     <mergeCell ref="E42:F43"/>
     <mergeCell ref="E44:F46"/>
     <mergeCell ref="E41:F41"/>
@@ -2250,25 +2263,20 @@
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G43:H45"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="H34:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="E28:F31"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="F34:F40"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="G28:H31"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="E7:F20"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="G8:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="H14:H20"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <webPublishItems count="3">
     <webPublishItem id="20585" divId="program-v2_20585" sourceType="sheet" destinationFile="C:\Users\Rui Tan\Dropbox\conf-orga\RTCSA25\OC-meetings\program-v5.htm"/>
     <webPublishItem id="19846" divId="program-v5_19846" sourceType="range" sourceRef="C2:J47" destinationFile="D:\Dropbox\Dropbox\RTCSA2025\rtcsa2025.github.io\img\program_2025\program-v5.htm"/>
